--- a/WirelessStreamingSecondTry/tabularView.xlsx
+++ b/WirelessStreamingSecondTry/tabularView.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/george/Projects/Personal/SimulationPerformance/WirelessStreamingSecondTry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86827698-8EDA-044F-A72F-B14AB3AD556C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4042FB33-7400-244A-971A-0D9421FBF245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{CAC70D3B-9823-574E-B5B2-DF2C4E1E35E3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Buffer Size</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>Project</t>
+  </si>
+  <si>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t>0.0146 s</t>
+  </si>
+  <si>
+    <t>0.0039 s</t>
+  </si>
+  <si>
+    <t>0.0017 s</t>
   </si>
 </sst>
 </file>
@@ -438,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54DE975-4588-024A-99B0-29D0F0C14DB3}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,7 +464,7 @@
     <col min="5" max="5" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -471,8 +483,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>689509</v>
       </c>
@@ -491,8 +506,11 @@
       <c r="F2" s="3">
         <v>2.8500000000000001E-2</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>689509</v>
       </c>
@@ -511,8 +529,11 @@
       <c r="F3" s="3">
         <v>4.7999999999999996E-3</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>689509</v>
       </c>
@@ -531,8 +552,11 @@
       <c r="F4" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
